--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.136777933508787</v>
+        <v>0.029478</v>
       </c>
       <c r="H2">
-        <v>0.136777933508787</v>
+        <v>0.088434</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1535387136874709</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1535387136874709</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.57772146876226</v>
+        <v>5.243417666666667</v>
       </c>
       <c r="N2">
-        <v>4.57772146876226</v>
+        <v>15.730253</v>
       </c>
       <c r="O2">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974575</v>
       </c>
       <c r="P2">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974574</v>
       </c>
       <c r="Q2">
-        <v>0.6261312826761112</v>
+        <v>0.154565465978</v>
       </c>
       <c r="R2">
-        <v>0.6261312826761112</v>
+        <v>1.391089193802</v>
       </c>
       <c r="S2">
-        <v>0.9282720566928842</v>
+        <v>0.1267308291429607</v>
       </c>
       <c r="T2">
-        <v>0.9282720566928842</v>
+        <v>0.1267308291429607</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -590,49 +593,297 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.136777933508787</v>
+        <v>0.029478</v>
       </c>
       <c r="H3">
-        <v>0.136777933508787</v>
+        <v>0.088434</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1535387136874709</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1535387136874709</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.353722320541402</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N3">
-        <v>0.353722320541402</v>
+        <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.07172794330711593</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="P3">
-        <v>0.07172794330711593</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="Q3">
-        <v>0.04838140803958572</v>
+        <v>0.020024366096</v>
       </c>
       <c r="R3">
-        <v>0.04838140803958572</v>
+        <v>0.180219294864</v>
       </c>
       <c r="S3">
-        <v>0.07172794330711593</v>
+        <v>0.01641831506378969</v>
       </c>
       <c r="T3">
-        <v>0.07172794330711593</v>
+        <v>0.01641831506378969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.029478</v>
+      </c>
+      <c r="H4">
+        <v>0.088434</v>
+      </c>
+      <c r="I4">
+        <v>0.1535387136874709</v>
+      </c>
+      <c r="J4">
+        <v>0.1535387136874709</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N4">
+        <v>1.289588</v>
+      </c>
+      <c r="O4">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P4">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q4">
+        <v>0.012671491688</v>
+      </c>
+      <c r="R4">
+        <v>0.114043425192</v>
+      </c>
+      <c r="S4">
+        <v>0.01038956948072052</v>
+      </c>
+      <c r="T4">
+        <v>0.01038956948072052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.1625126666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.487538</v>
+      </c>
+      <c r="I5">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="J5">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5.243417666666667</v>
+      </c>
+      <c r="N5">
+        <v>15.730253</v>
+      </c>
+      <c r="O5">
+        <v>0.8253998362974575</v>
+      </c>
+      <c r="P5">
+        <v>0.8253998362974574</v>
+      </c>
+      <c r="Q5">
+        <v>0.8521217874571111</v>
+      </c>
+      <c r="R5">
+        <v>7.669096087114</v>
+      </c>
+      <c r="S5">
+        <v>0.6986690071544968</v>
+      </c>
+      <c r="T5">
+        <v>0.6986690071544966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.1625126666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.487538</v>
+      </c>
+      <c r="I6">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="J6">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.037896</v>
+      </c>
+      <c r="O6">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="P6">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="Q6">
+        <v>0.1103946377831111</v>
+      </c>
+      <c r="R6">
+        <v>0.9935517400480001</v>
+      </c>
+      <c r="S6">
+        <v>0.09051442306771036</v>
+      </c>
+      <c r="T6">
+        <v>0.09051442306771036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.1625126666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.487538</v>
+      </c>
+      <c r="I7">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="J7">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.289588</v>
+      </c>
+      <c r="O7">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P7">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q7">
+        <v>0.06985812826044445</v>
+      </c>
+      <c r="R7">
+        <v>0.6287231543440002</v>
+      </c>
+      <c r="S7">
+        <v>0.05727785609032184</v>
+      </c>
+      <c r="T7">
+        <v>0.05727785609032184</v>
       </c>
     </row>
   </sheetData>
